--- a/biology/Botanique/Chamaecyparis_obtusa/Chamaecyparis_obtusa.xlsx
+++ b/biology/Botanique/Chamaecyparis_obtusa/Chamaecyparis_obtusa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chamaecyparis obtusa, le cyprès du Japon ou hinoki faux-cyprès est une espèce d’arbres conifères de la famille des Cupressaceae et du genre Chamaecyparis.
 Au Japon Chamaecyparis obtusa fait partie des cinq espèces d'arbres protégés nommés les Kiso Goshinboku ou cinq arbres sacrés de Kiso.
